--- a/Code/Jupiter/Connect4/Logs/PPO_matrix/pairwise_matches.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPO_matrix/pairwise_matches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -52,25 +52,34 @@
     <t>opening_noise_k</t>
   </si>
   <si>
-    <t>MIX_10</t>
-  </si>
-  <si>
-    <t>MIX_7a</t>
-  </si>
-  <si>
-    <t>MIX_7b</t>
-  </si>
-  <si>
-    <t>MIX_8</t>
-  </si>
-  <si>
-    <t>MIX_11</t>
+    <t>MIX_34</t>
+  </si>
+  <si>
+    <t>MIX_42b</t>
+  </si>
+  <si>
+    <t>MIX_44</t>
+  </si>
+  <si>
+    <t>MIX_45b</t>
+  </si>
+  <si>
+    <t>MIX_54</t>
+  </si>
+  <si>
+    <t>MIX_55</t>
+  </si>
+  <si>
+    <t>MIX_57a</t>
+  </si>
+  <si>
+    <t>MIX_58</t>
   </si>
   <si>
     <t>center</t>
   </si>
   <si>
-    <t>{0: 0.7, 1: 0.2, 2: 0.1}</t>
+    <t>{0: 0.85, 1: 0.1, 2: 0.05}</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,37 +486,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="E2">
-        <v>215</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G2">
-        <v>0.307</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.2785344936228668</v>
+        <v>0.4563050105365796</v>
       </c>
       <c r="I2">
-        <v>0.3354655063771332</v>
+        <v>0.5436949894634203</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -515,37 +524,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G3">
-        <v>0.497</v>
+        <v>0.477</v>
       </c>
       <c r="H3">
-        <v>0.4546024392504117</v>
+        <v>0.4332195541127757</v>
       </c>
       <c r="I3">
-        <v>0.5393975607495883</v>
+        <v>0.5207804458872242</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,37 +562,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G4">
-        <v>0.311</v>
+        <v>0.262</v>
       </c>
       <c r="H4">
-        <v>0.2832843306149948</v>
+        <v>0.2366677228079379</v>
       </c>
       <c r="I4">
-        <v>0.3387156693850052</v>
+        <v>0.2873322771920621</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -591,37 +600,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>468</v>
       </c>
       <c r="E5">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>0.323</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="H5">
-        <v>0.294276031612609</v>
+        <v>0.9157725038597396</v>
       </c>
       <c r="I5">
-        <v>0.3517239683873911</v>
+        <v>0.9582274961402605</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -629,37 +638,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
       <c r="D6">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H6">
-        <v>0.4566588219422815</v>
+        <v>0.4665789630143888</v>
       </c>
       <c r="I6">
-        <v>0.5433411780577185</v>
+        <v>0.5534210369856112</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -667,75 +676,75 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>500</v>
       </c>
       <c r="D7">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="G7">
-        <v>0.488</v>
+        <v>0.061</v>
       </c>
       <c r="H7">
-        <v>0.4452079734732212</v>
+        <v>0.04027754713105102</v>
       </c>
       <c r="I7">
-        <v>0.5307920265267787</v>
+        <v>0.08172245286894897</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>500</v>
       </c>
       <c r="D8">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="G8">
-        <v>0.513</v>
+        <v>0.025</v>
       </c>
       <c r="H8">
-        <v>0.4692758609017884</v>
+        <v>0.01263029429458902</v>
       </c>
       <c r="I8">
-        <v>0.5567241390982116</v>
+        <v>0.03736970570541098</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -743,37 +752,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>500</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="F9">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>0.102</v>
+        <v>0.703</v>
       </c>
       <c r="H9">
-        <v>0.07559049202611215</v>
+        <v>0.6754917681987069</v>
       </c>
       <c r="I9">
-        <v>0.1284095079738878</v>
+        <v>0.730508231801293</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -787,69 +796,753 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G10">
-        <v>0.51</v>
+        <v>0.491</v>
       </c>
       <c r="H10">
-        <v>0.4667566275769681</v>
+        <v>0.4472681144194208</v>
       </c>
       <c r="I10">
-        <v>0.5532433724230319</v>
+        <v>0.5347318855805792</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>460</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>0.929</v>
+      </c>
+      <c r="H11">
+        <v>0.9072480326184058</v>
+      </c>
+      <c r="I11">
+        <v>0.9507519673815943</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>452</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>0.904</v>
+      </c>
+      <c r="H12">
+        <v>0.8781520782476069</v>
+      </c>
+      <c r="I12">
+        <v>0.9298479217523932</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>241</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>258</v>
+      </c>
+      <c r="G13">
+        <v>0.483</v>
+      </c>
+      <c r="H13">
+        <v>0.4391984577279427</v>
+      </c>
+      <c r="I13">
+        <v>0.5268015422720572</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>443</v>
-      </c>
-      <c r="G11">
-        <v>0.102</v>
-      </c>
-      <c r="H11">
-        <v>0.07632960605189507</v>
-      </c>
-      <c r="I11">
-        <v>0.1276703939481049</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>244</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>247</v>
+      </c>
+      <c r="G14">
+        <v>0.497</v>
+      </c>
+      <c r="H14">
+        <v>0.4535266021129278</v>
+      </c>
+      <c r="I14">
+        <v>0.5404733978870722</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>243</v>
+      </c>
+      <c r="E15">
+        <v>224</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>0.71</v>
+      </c>
+      <c r="H15">
+        <v>0.6831132323148894</v>
+      </c>
+      <c r="I15">
+        <v>0.7368867676851105</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>459</v>
+      </c>
+      <c r="G16">
+        <v>0.077</v>
+      </c>
+      <c r="H16">
+        <v>0.05402391442790062</v>
+      </c>
+      <c r="I16">
+        <v>0.09997608557209937</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>246</v>
+      </c>
+      <c r="E17">
+        <v>230</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>0.722</v>
+      </c>
+      <c r="H17">
+        <v>0.6963116182464868</v>
+      </c>
+      <c r="I17">
+        <v>0.7476883817535132</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>472</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="G18">
+        <v>0.955</v>
+      </c>
+      <c r="H18">
+        <v>0.9380145671276908</v>
+      </c>
+      <c r="I18">
+        <v>0.9719854328723091</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>229</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+      <c r="G19">
+        <v>0.271</v>
+      </c>
+      <c r="H19">
+        <v>0.2457128929221088</v>
+      </c>
+      <c r="I19">
+        <v>0.2962871070778912</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>238</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>246</v>
+      </c>
+      <c r="G20">
+        <v>0.492</v>
+      </c>
+      <c r="H20">
+        <v>0.4488425231179852</v>
+      </c>
+      <c r="I20">
+        <v>0.5351574768820148</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>230</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>270</v>
+      </c>
+      <c r="G21">
+        <v>0.46</v>
+      </c>
+      <c r="H21">
+        <v>0.4162697868392324</v>
+      </c>
+      <c r="I21">
+        <v>0.5037302131607676</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>240</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>250</v>
+      </c>
+      <c r="G22">
+        <v>0.49</v>
+      </c>
+      <c r="H22">
+        <v>0.4465789630143888</v>
+      </c>
+      <c r="I22">
+        <v>0.5334210369856112</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>238</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>254</v>
+      </c>
+      <c r="G23">
+        <v>0.484</v>
+      </c>
+      <c r="H23">
+        <v>0.4405042063075304</v>
+      </c>
+      <c r="I23">
+        <v>0.5274957936924696</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>244</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>240</v>
+      </c>
+      <c r="G24">
+        <v>0.504</v>
+      </c>
+      <c r="H24">
+        <v>0.4608382421177384</v>
+      </c>
+      <c r="I24">
+        <v>0.5471617578822616</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>479</v>
+      </c>
+      <c r="G25">
+        <v>0.039</v>
+      </c>
+      <c r="H25">
+        <v>0.0223570486854971</v>
+      </c>
+      <c r="I25">
+        <v>0.0556429513145029</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>454</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>0.91</v>
+      </c>
+      <c r="H26">
+        <v>0.8850437079471719</v>
+      </c>
+      <c r="I26">
+        <v>0.9349562920528282</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>475</v>
+      </c>
+      <c r="G27">
+        <v>0.047</v>
+      </c>
+      <c r="H27">
+        <v>0.02874404285877389</v>
+      </c>
+      <c r="I27">
+        <v>0.0652559571412261</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>482</v>
+      </c>
+      <c r="G28">
+        <v>0.034</v>
+      </c>
+      <c r="H28">
+        <v>0.01834260145943407</v>
+      </c>
+      <c r="I28">
+        <v>0.04965739854056594</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>252</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>248</v>
+      </c>
+      <c r="G29">
+        <v>0.504</v>
+      </c>
+      <c r="H29">
+        <v>0.4601305787473543</v>
+      </c>
+      <c r="I29">
+        <v>0.5478694212526457</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
